--- a/experiment_plans/all_ex_plan.xlsx
+++ b/experiment_plans/all_ex_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LR\WLR\Documents-\WangLR\University\Y2S1\URECA\Code\doppelgangerSpotting\experiment_plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125763A2-2B3B-45E3-8FA2-8F2B9EB61E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D7AA7-88B7-40E6-9521-ACE1B1BDFA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Additional doppel samples" sheetId="8" r:id="rId8"/>
     <sheet name="Experiment_Plan" sheetId="9" r:id="rId9"/>
     <sheet name="Experiment_Plan_Additional" sheetId="10" r:id="rId10"/>
+    <sheet name="Additional_2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="106">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -341,6 +342,12 @@
   </si>
   <si>
     <t>E2A_13_R.train</t>
+  </si>
+  <si>
+    <t>Pos_Con_2.train</t>
+  </si>
+  <si>
+    <t>Pos_Con_2.valid</t>
   </si>
 </sst>
 </file>
@@ -1563,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829B9055-E7D8-491F-A751-97C4C63B8ED6}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1953,6 +1960,591 @@
         <v>56</v>
       </c>
       <c r="G18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0882A79A-54C2-44E9-86A4-8D2E4866CB20}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.04296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3489,7 +4081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F214729D-2525-48F5-BE17-02620BA4F904}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
